--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -1668,12 +1668,12 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
@@ -1718,12 +1718,12 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
@@ -1768,7 +1768,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1814,12 +1814,12 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
@@ -1865,7 +1865,7 @@
       <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
@@ -1910,12 +1910,12 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="H27" s="15" t="n"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2051,7 +2051,7 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
@@ -2096,7 +2096,7 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
@@ -2141,7 +2141,7 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
@@ -2232,7 +2232,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2278,7 +2278,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2370,12 +2370,12 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Implemente aplicativos estreitamente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
+          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2420,12 +2420,12 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
@@ -2459,7 +2459,7 @@
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,12 +2470,12 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
@@ -2503,13 +2503,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Garanta o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura).</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,12 +2520,12 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
@@ -2553,13 +2553,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,19 +2570,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2603,13 +2599,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, Nome do Projeto)</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2620,7 +2616,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2628,7 +2624,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2649,13 +2645,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2666,15 +2662,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="n"/>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, Nome do Projeto)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,15 +2712,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -2740,18 +2740,18 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use o SAP Solution Manager e o Azure Monitor for SAP Solutions para monitorar o SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL</t>
+          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2760,13 +2760,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2782,12 +2790,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual para acessar dados de monitoramento e configuração de VM.</t>
+          <t>Se você implantar o Azure NetApp Files para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2804,19 +2812,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2832,18 +2835,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2854,19 +2857,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2882,12 +2881,12 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Proteja seu banco de dados HANA com o serviço de Backup do Azure. Se você implantar o ANF (Azure NetApp Files) para seu banco de dados HANA, use a ferramenta Instantâneo Consistente de Aplicativo do Azure (AzAcSnap) para tirar instantâneos consistentes com o aplicativo</t>
+          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters de serviços centrais e DRBD no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2904,19 +2903,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2932,18 +2931,18 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2954,19 +2953,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2982,12 +2976,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão do Inspetor de Rede para monitorar métricas de latência do banco de dados SAP e do servidor de aplicativos ou colete e exiba medições de latência de rede com o Azure Monitor.</t>
+          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, pois eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3004,19 +2998,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3032,12 +3021,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3054,19 +3043,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3082,18 +3071,18 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para cada assinatura do Azure, execute um teste de latência da Zona de Disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para a implantação do SAP no Azure.</t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3104,15 +3093,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3133,7 +3126,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Implemente a proteção contra ameaças para SAP com o Microsoft Sentinel.</t>
+          <t>Use o Azure Monitor para soluções SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3150,15 +3143,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3179,13 +3176,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Impor a configuração do gerenciamento de atualizações por meio da política garante que todas as VMs sejam incluídas no regime de gerenciamento de patches, fornece às equipes de aplicativos a capacidade de gerenciar a implantação de patches para suas VMs e fornece à TI central recursos de visibilidade e imposição em todas as VMs</t>
+          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3196,14 +3193,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3224,7 +3226,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Habilite o VM Insights para VMs que executam cargas de trabalho SAP.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3241,15 +3243,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3270,7 +3276,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3287,14 +3293,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3315,13 +3326,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3332,14 +3343,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3350,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3377,19 +3393,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3400,23 +3411,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
+          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3427,19 +3438,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3450,17 +3461,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
+          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3477,19 +3488,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3500,17 +3511,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
+          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3527,19 +3538,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3550,17 +3561,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3577,19 +3588,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3600,23 +3611,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que a Rede Acelerada esteja habilitada para todas as VMs onde for aplicável.</t>
+          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3627,19 +3638,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3650,17 +3656,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3677,19 +3683,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3700,17 +3706,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use o SAP Web dispatcher ou serviço de terceiros, como o NetScaler, em conjunto com o Application gateway, se necessário, para superar a limitação de proxy reverso para SAP Web Apps.</t>
+          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3727,19 +3733,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3750,23 +3752,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3777,19 +3779,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3800,17 +3798,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3827,19 +3825,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3850,17 +3848,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3877,19 +3875,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3905,12 +3903,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return) para configuração de HA na camada DBMS</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3925,13 +3923,21 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3947,12 +3953,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Se o Azure NetApp Files for usado para implantação SAP, verifique se apenas uma sub-rede delegada pode existir em uma Vnet para Azure NetAppFiles</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Os desafios de conexão surgem entre vários sistemas quando os nomes virtuais ou DNS são alterados após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3969,19 +3975,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3997,12 +4003,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para tráfego de microsegmentos dentro da camada de aplicativos SAP, como sub-rede de aplicativos, sub-rede de banco de dados e sub-rede da Web, etc.</t>
+          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) uns dos outros. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4019,19 +4025,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4047,12 +4053,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
+          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4069,19 +4075,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4097,18 +4103,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4117,13 +4123,21 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2731110</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4139,12 +4153,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4159,13 +4173,21 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
+      <c r="H73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4176,23 +4198,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas do Azure spoke para evitar alterações acidentais relacionadas à rede</t>
+          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4203,15 +4225,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4222,17 +4248,17 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs) e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4249,15 +4275,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4268,23 +4298,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Para criptografia do servidor de banco de dados SAP, use a tecnologia de criptografia nativa do SAP HANA. Se você estiver usando o Banco de Dados SQL do Azure, use a TDE (Criptografia de Dados Transparente) oferecida pelo provedor DBMS para proteger seus dados e arquivos de log e garantir que os backups também sejam criptografados.</t>
+          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4295,15 +4325,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4314,23 +4348,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>A criptografia do Armazenamento do Azure está habilitada por padrão</t>
+          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4341,15 +4375,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4360,23 +4398,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4387,15 +4425,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4406,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, somente uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4433,15 +4475,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4452,23 +4498,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4479,15 +4525,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4498,17 +4548,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas</t>
+          <t>Use o SAP Web dispatcher ou serviço de terceiros, como o NetScaler, em conjunto com o Application gateway, se necessário, para superar a limitação de proxy reverso para SAP Web Apps.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4523,17 +4573,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4544,17 +4590,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4571,15 +4617,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4590,17 +4640,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Aproveite as políticas do Firewall de Aplicativo Web no Azure Front Door ao usar o Azure Front Door e o Gateway de Aplicativo para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4617,15 +4667,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4636,17 +4690,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Cloud Standard for SAP, certifique-se de excluir os servidores de banco de dados SAP de qualquer política que instale a proteção de ponto de extremidade.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4663,15 +4717,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4682,17 +4740,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4709,15 +4767,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4728,17 +4790,17 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4755,15 +4817,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4774,23 +4840,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>O Azure Active Directory (Azure AD) com SAML 2.0 também pode fornecer SSO para uma variedade de aplicativos e plataformas SAP, como SAP NetWeaver, SAP HANA e SAP Cloud Platform</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4801,15 +4867,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4820,17 +4890,17 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de proteger o sistema operacional para erradicar vulnerabilidades que podem levar a ataques no banco de dados SAP.</t>
+          <t>Verifique se as implantações internas do Balanceador de Carga do Azure estão configuradas para usar o DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4847,15 +4917,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4866,17 +4940,17 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Você pode usar regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4893,15 +4967,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4912,23 +4990,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4939,15 +5017,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4958,17 +5040,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4985,15 +5067,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5004,23 +5090,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Configuração de disco para Oracle, SQL, HANA</t>
+          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5029,13 +5115,21 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5044,389 +5138,1064 @@
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>Segmentação</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
-      <c r="I93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>Segmentação</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
-      <c r="I94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>Segmentação</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
-      <c r="I95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>Segmentação</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferencial de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas do Azure spoke para evitar alterações acidentais relacionadas à rede</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="n"/>
+      <c r="H97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Para criptografia do servidor de banco de dados SAP, use a tecnologia de criptografia nativa do SAP HANA. Se você estiver usando o Banco de Dados SQL do Azure, use a TDE (Criptografia de Dados Transparente) oferecida pelo provedor DBMS para proteger seus dados e arquivos de log e garantir que os backups também sejam criptografados.</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="n"/>
+      <c r="H99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>A criptografia do Armazenamento do Azure está habilitada por padrão</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>Governança</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="n"/>
+      <c r="H103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Ao habilitar o Microsoft Defender for Cloud Standard for SAP, certifique-se de excluir os servidores de banco de dados SAP de qualquer política que instale a proteção de ponto de extremidade.</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time.</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>O Azure Active Directory (Azure AD) com SAML 2.0 também pode fornecer SSO para uma variedade de aplicativos e plataformas SAP, como SAP NetWeaver, SAP HANA e SAP Cloud Platform</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de proteger o sistema operacional para erradicar vulnerabilidades que podem levar a ataques no banco de dados SAP.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="n"/>
-      <c r="B113" s="21" t="n"/>
-      <c r="C113" s="21" t="n"/>
+      <c r="A113" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C113" s="21" t="inlineStr">
+        <is>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+        </is>
+      </c>
       <c r="D113" s="21" t="n"/>
-      <c r="E113" s="21" t="n"/>
+      <c r="E113" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="n"/>
+      <c r="H113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="n"/>
+      <c r="L113" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="n"/>
-      <c r="B114" s="21" t="n"/>
-      <c r="C114" s="21" t="n"/>
+      <c r="A114" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C114" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D114" s="21" t="n"/>
-      <c r="E114" s="21" t="n"/>
+      <c r="E114" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="n"/>
+      <c r="H114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="n"/>
+      <c r="L114" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="n"/>
-      <c r="B115" s="21" t="n"/>
-      <c r="C115" s="21" t="n"/>
+      <c r="A115" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C115" s="21" t="inlineStr">
+        <is>
+          <t>Configuração de disco para Oracle, SQL, HANA</t>
+        </is>
+      </c>
       <c r="D115" s="21" t="n"/>
-      <c r="E115" s="21" t="n"/>
+      <c r="E115" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="n"/>
+      <c r="L115" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
@@ -8367,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F93" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Use o SAP Web dispatcher ou serviço de terceiros, como o NetScaler, em conjunto com o Application gateway, se necessário, para superar a limitação de proxy reverso para SAP Web Apps.</t>
+          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4573,13 +4573,21 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Não combinar ASCS e cluster de banco de dados em uma única ou mesma VM</t>
+          <t>No momento, o Azure não oferece suporte à combinação de ASCS e db HA no mesmo cluster do Linux Pacemaker; Separe-os em agrupamentos individuais. No entanto, você pode combinar até cinco clusters de serviços centrais em um par de VMs.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
+          <t>Usar uma SKU do Standard Load Balancer na frente de clusters ASCS e DB</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
+          <t>Ambas as VMs no par de HAs devem ser implantadas em um conjunto de disponibilidade, ou as zonas de disponibilidade devem ter o mesmo tamanho e a mesma configuração de armazenamento</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
+          <t>A tecnologia de replicação de banco de dados nativo deve ser usada para sincronizar o banco de dados em um par de HA.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>No momento, o Azure não oferece suporte à combinação de ASCS e db HA no mesmo cluster do Linux Pacemaker; Separe-os em agrupamentos individuais. No entanto, você pode combinar até cinco clusters de serviços centrais em um par de VMs.</t>
+          <t>Executar uma recuperação point-in-time para seus bancos de dados de produção em qualquer ponto e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Usar um SKU do Standard Load Balancer na frente de clusters ASCS e DB</t>
+          <t>O CIDR para a rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da Vnet do site de recuperação de desastres</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,17 +1314,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1345,7 +1341,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Ambas as VMs no par de HA devem ser implantadas em um conjunto de disponibilidade, ou as zonas de disponibilidade devem ter o mesmo tamanho e a mesma configuração de armazenamento</t>
+          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de recuperação de desastres. A Recuperação de Site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site de recuperação de desastres. Ao invocar o DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substitua o VIP ou o SBD, execute o corosync.conf e muito mais).</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1360,17 +1356,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1391,7 +1383,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>A tecnologia de replicação de banco de dados nativo deve ser usada para sincronizar o banco de dados em um par de HA.</t>
+          <t>A replicação de banco de dados nativo deve ser usada para sincronizar dados com o site de recuperação de desastres, em vez do Azure Site Recovery</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1406,17 +1398,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1420,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Executar uma recuperação point-in-time para seus bancos de dados de produção em qualquer ponto e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
+          <t>Considere a disponibilidade do software SAP em relação a pontos únicos de falha. Isso inclui pontos únicos de falha em aplicativos como SGBDs utilizados nas arquiteturas SAP NetWeaver e SAP S/4HANA, SAP ABAP e ASCS + SCS. Além disso, outras ferramentas, como o SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,15 +1442,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1478,18 +1470,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>O CIDR para a rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da Vnet do site de DR</t>
+          <t>Para bancos de dados SAP e SAP, considere a implementação de clusters de failover automático. No Windows, o Clustering de Failover do Windows Server oferece suporte a failover. No Linux, Linux Pacemaker ou ferramentas de terceiros como SIOS Protection Suite e Veritas InfoScale suportam failover.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1498,13 +1490,21 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,18 +1520,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de recuperação de desastres. A Recuperação de Site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site de recuperação de desastres. Ao invocar o DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substitua o VIP ou o SBD, execute o corosync.conf e muito mais).</t>
+          <t>O Azure não oferece suporte a arquiteturas nas quais as VMs primária e secundária compartilham armazenamento para dados DBMS. Para a camada DBMS, o padrão de arquitetura comum é replicar bancos de dados ao mesmo tempo e com pilhas de armazenamento diferentes daquelas que as VMs primária e secundária usam.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1540,13 +1540,21 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1562,18 +1570,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>A replicação de banco de dados nativo deve ser usada para sincronizar dados com o site de recuperação de desastres, em vez do Azure Site Recovery</t>
+          <t>Os dados do DBMS e os arquivos de log de transação/refazer são armazenados no armazenamento em bloco com suporte do Azure ou nos Arquivos do Azure NetApp. Os Arquivos do Azure ou os Arquivos Premium do Azure não têm suporte como armazenamento para dados DBMS e/ou arquivos de log de refazer com a carga de trabalho SAP.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1582,13 +1590,21 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1599,23 +1615,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Fazer solicitações de cota para SKU e zonas de VM corretas</t>
+          <t>Você pode usar discos compartilhados do Azure no Windows para componentes ASCS + SCS e cenários específicos de alta disponibilidade. Configure seus clusters de failover separadamente para componentes da camada de aplicativo SAP e a camada DBMS. No momento, o Azure não oferece suporte a arquiteturas de alta disponibilidade que combinam componentes da camada de aplicativo SAP e a camada DBMS em um cluster de failover.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1624,13 +1640,21 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1641,17 +1665,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>A maioria dos clusters de failover para ASCS (Application Layer Components, componentes da camada de aplicativo) SAP e a camada DBMS exigem um endereço IP virtual para um cluster de failover.  O Balanceador de Carga do Azure deve manipular o endereço IP virtual para todos os outros casos. Um princípio de design é usar um balanceador de carga por configuração de cluster. Recomendamos que você use a versão padrão do balanceador de carga (SKU do Standard Load Balancer).</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1668,19 +1692,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1691,23 +1715,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
+          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1718,19 +1742,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1741,23 +1765,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
+          <t>Antes de implantar sua infraestrutura de alta disponibilidade, e dependendo da região escolhida, determine se deseja implantar com um conjunto de disponibilidade do Azure ou uma zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1768,15 +1792,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1787,23 +1815,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Se desejar atender aos SLAs de infraestrutura de seus aplicativos para componentes SAP (serviços centrais, servidores de aplicativos e bancos de dados), você deverá escolher as mesmas opções de alta disponibilidade (VMs, conjuntos de disponibilidade, zonas de disponibilidade) para todos os componentes.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1814,19 +1842,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1837,23 +1861,23 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1862,17 +1886,21 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="n"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1883,17 +1911,17 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Você pode implementar o SSO para SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
+          <t>Você não pode implantar conjuntos de disponibilidade do Azure em uma zona de disponibilidade do Azure, a menos que use grupos de posicionamento de proximidade.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1910,19 +1938,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,23 +1961,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Ao criar conjuntos de disponibilidade, use o número máximo de domínios de falha e atualize domínios disponíveis. Por exemplo, se você implantar mais de duas VMs em um conjunto de disponibilidade, use o número máximo de domínios de falha (três) e domínios de atualização suficientes para limitar o efeito de possíveis falhas de hardware físico, interrupções de rede ou interrupções de energia, além da manutenção planejada do Azure. O número padrão de domínios de falha é dois e você não pode alterá-lo online mais tarde.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1958,17 +1986,21 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1979,23 +2011,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Quando você usa grupos de posicionamento de proximidade do Azure em uma implantação de conjunto de disponibilidade, todos os três componentes SAP (serviços centrais, servidor de aplicativos e banco de dados) devem estar no mesmo grupo de posicionamento de proximidade.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2006,14 +2038,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2024,23 +2056,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
+          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2051,14 +2083,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2069,17 +2101,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP HANA</t>
+          <t>Fazer solicitações de cota para SKU e zonas de VM corretas</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2094,16 +2126,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2124,13 +2152,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2141,14 +2169,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2169,7 +2202,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
+          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2186,15 +2219,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2215,7 +2252,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
+          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2232,7 +2269,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2240,7 +2277,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2261,7 +2298,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP BTP</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2278,15 +2315,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2307,7 +2348,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2322,17 +2363,17 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2343,17 +2384,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
+          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2370,19 +2411,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2393,23 +2434,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2418,21 +2459,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2443,23 +2480,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,19 +2507,15 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2493,23 +2526,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
+          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,19 +2553,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2543,23 +2572,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
+          <t>Implementar SSO no SAP HANA</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,7 +2599,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2578,7 +2607,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2589,23 +2618,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
+          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2616,7 +2645,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2624,7 +2653,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2635,23 +2664,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2662,19 +2691,15 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2685,17 +2710,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, Nome do Projeto)</t>
+          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,19 +2737,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2735,23 +2756,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
+          <t>Implementar SSO no SAP BTP</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2762,19 +2783,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2785,17 +2802,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Se você implantar o Azure NetApp Files para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
+          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2812,14 +2829,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2830,23 +2847,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
+          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2857,15 +2874,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2876,23 +2897,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters de serviços centrais e DRBD no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
+          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2903,19 +2924,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2926,23 +2947,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2953,14 +2974,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2971,23 +2997,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, pois eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2998,14 +3024,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3016,23 +3047,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
+          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3043,19 +3074,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3066,23 +3093,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3093,19 +3120,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3116,23 +3139,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor para soluções SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3143,19 +3166,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3166,23 +3189,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
+          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3193,19 +3216,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3221,18 +3244,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3243,19 +3266,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3271,12 +3294,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
+          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3293,19 +3316,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3321,12 +3339,12 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3343,19 +3361,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3371,12 +3384,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
+          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3393,14 +3406,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3416,18 +3434,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3438,19 +3456,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3466,12 +3479,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
+          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3488,19 +3501,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3516,12 +3524,12 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
+          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3538,19 +3546,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3566,18 +3574,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3588,19 +3596,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3616,18 +3624,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
+          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3638,14 +3646,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3661,18 +3674,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3683,19 +3696,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3711,12 +3724,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3733,15 +3746,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3757,18 +3774,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
+          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3779,15 +3796,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3803,18 +3824,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3825,19 +3846,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3853,12 +3874,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
+          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3875,19 +3896,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3898,23 +3915,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3925,19 +3942,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3948,17 +3965,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Os desafios de conexão surgem entre vários sistemas quando os nomes virtuais ou DNS são alterados após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
+          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3975,19 +3992,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3998,17 +4015,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) uns dos outros. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
+          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4025,19 +4042,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4048,17 +4065,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4075,19 +4092,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4098,23 +4115,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
+          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4125,19 +4142,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/2731110</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4148,17 +4161,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4175,19 +4188,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4198,17 +4211,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
+          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4225,19 +4238,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4248,23 +4257,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs) e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
+          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4275,19 +4284,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4298,23 +4303,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
+          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4325,19 +4330,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4348,23 +4353,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
+          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4375,19 +4380,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,18 +4408,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4425,19 +4430,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,12 +4458,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, somente uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4475,19 +4480,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,12 +4508,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4525,19 +4530,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,12 +4558,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
+          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4575,19 +4580,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,18 +4608,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4625,19 +4630,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,12 +4658,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as políticas do Firewall de Aplicativo Web no Azure Front Door ao usar o Azure Front Door e o Gateway de Aplicativo para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4675,19 +4680,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,12 +4708,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4725,19 +4730,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,12 +4758,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4775,19 +4780,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,18 +4808,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
+          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4825,19 +4830,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,12 +4858,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4875,19 +4880,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,18 +4908,18 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Balanceador de Carga do Azure estão configuradas para usar o DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4925,19 +4930,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,12 +4958,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4975,19 +4980,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,18 +5008,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5025,19 +5030,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,12 +5058,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5075,19 +5080,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5103,18 +5108,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5125,19 +5130,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5153,18 +5158,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5175,19 +5180,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5203,18 +5208,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5225,19 +5230,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5253,18 +5258,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5275,19 +5280,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5303,12 +5308,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferencial de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5325,15 +5330,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5344,17 +5353,17 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas do Azure spoke para evitar alterações acidentais relacionadas à rede</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5371,15 +5380,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5390,17 +5403,17 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5417,15 +5430,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5436,17 +5453,17 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para criptografia do servidor de banco de dados SAP, use a tecnologia de criptografia nativa do SAP HANA. Se você estiver usando o Banco de Dados SQL do Azure, use a TDE (Criptografia de Dados Transparente) oferecida pelo provedor DBMS para proteger seus dados e arquivos de log e garantir que os backups também sejam criptografados.</t>
+          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5463,15 +5480,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5482,23 +5503,23 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>A criptografia do Armazenamento do Azure está habilitada por padrão</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5509,15 +5530,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5528,17 +5553,17 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5555,15 +5580,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5574,23 +5603,23 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5601,15 +5630,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5620,17 +5653,17 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5647,15 +5680,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5666,23 +5703,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5693,15 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5712,23 +5753,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5739,15 +5780,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5758,17 +5803,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5785,7 +5830,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5793,7 +5838,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5809,12 +5854,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Cloud Standard for SAP, certifique-se de excluir os servidores de banco de dados SAP de qualquer política que instale a proteção de ponto de extremidade.</t>
+          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5831,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5855,12 +5904,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time.</t>
+          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5877,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5901,18 +5954,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5923,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5931,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5947,18 +6000,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>O Azure Active Directory (Azure AD) com SAML 2.0 também pode fornecer SSO para uma variedade de aplicativos e plataformas SAP, como SAP NetWeaver, SAP HANA e SAP Cloud Platform</t>
+          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5969,15 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5998,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de proteger o sistema operacional para erradicar vulnerabilidades que podem levar a ataques no banco de dados SAP.</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azrue usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6015,14 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6043,7 +6105,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6060,15 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6089,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6106,15 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6135,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6152,15 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6171,17 +6245,17 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Configuração de disco para Oracle, SQL, HANA</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6196,12 +6270,21 @@
         </is>
       </c>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="n"/>
+      <c r="H115" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6210,262 +6293,787 @@
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="n"/>
-      <c r="B116" s="21" t="n"/>
-      <c r="C116" s="21" t="n"/>
+      <c r="A116" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C116" s="21" t="inlineStr">
+        <is>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+        </is>
+      </c>
       <c r="D116" s="21" t="n"/>
-      <c r="E116" s="21" t="n"/>
+      <c r="E116" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="n"/>
+      <c r="H116" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="n"/>
+      <c r="L116" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="n"/>
-      <c r="B117" s="21" t="n"/>
-      <c r="C117" s="21" t="n"/>
+      <c r="A117" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C117" s="21" t="inlineStr">
+        <is>
+          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+        </is>
+      </c>
       <c r="D117" s="21" t="n"/>
-      <c r="E117" s="21" t="n"/>
+      <c r="E117" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="n"/>
+      <c r="H117" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="n"/>
+      <c r="L117" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="n"/>
-      <c r="B118" s="21" t="n"/>
-      <c r="C118" s="21" t="n"/>
+      <c r="A118" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C118" s="21" t="inlineStr">
+        <is>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="n"/>
+      <c r="E118" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
+      <c r="H118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="n"/>
+      <c r="L118" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="n"/>
-      <c r="B119" s="21" t="n"/>
-      <c r="C119" s="21" t="n"/>
+      <c r="A119" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C119" s="21" t="inlineStr">
+        <is>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D119" s="21" t="n"/>
-      <c r="E119" s="21" t="n"/>
+      <c r="E119" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G119" s="21" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="n"/>
+      <c r="L119" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+        </is>
+      </c>
       <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+        </is>
+      </c>
       <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+        </is>
+      </c>
       <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+        </is>
+      </c>
       <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+        </is>
+      </c>
       <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+        </is>
+      </c>
       <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+        </is>
+      </c>
       <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+        </is>
+      </c>
       <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Configuração de disco para Oracle, SQL, HANA</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9144,7 +9752,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5730,19 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
+          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5780,19 +5780,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5803,17 +5799,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5830,15 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
+          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5881,14 +5881,14 @@
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5926,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5955,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
+          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5979,12 +5975,16 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
-      <c r="I109" s="15" t="n"/>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azrue usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,19 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de servidores de banco de dados SAP HANA no Azrue usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
+          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6105,13 +6105,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6172,19 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6222,19 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6255,13 +6255,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6272,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6322,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6372,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6405,13 +6405,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6422,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6455,13 +6455,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6472,19 +6472,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,7 +6522,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6534,7 +6534,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6572,19 +6572,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6605,13 +6605,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,19 +6622,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6650,18 +6646,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6672,15 +6668,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6718,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6751,13 +6751,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6768,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6818,19 +6818,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6868,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6901,13 +6901,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6918,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6951,13 +6951,13 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6968,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,17 +6991,17 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+          <t>Configuração de disco para Oracle, SQL, HANA</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7016,21 +7016,12 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7039,41 +7030,16 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Configuração de disco para Oracle, SQL, HANA</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9752,7 +9718,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de negócios e recuperação de desastres</t>
+          <t>Automação</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ACSS</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>No momento, o Azure não oferece suporte à combinação de ASCS e db HA no mesmo cluster do Linux Pacemaker; Separe-os em agrupamentos individuais. No entanto, você pode combinar até cinco clusters de serviços centrais em um par de VMs.</t>
+          <t>O Azure Center for SAP solutions (ACSS) é uma oferta do Azure que torna o SAP uma carga de trabalho de nível superior no Azure. O ACSS é uma solução de ponta a ponta que permite criar e executar sistemas SAP como uma carga de trabalho unificada no Azure e fornece uma base mais perfeita para a inovação. Você pode aproveitar os recursos de gerenciamento para sistemas SAP novos e existentes baseados no Azure.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/center-sap-solutions/overview</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1105,17 +1109,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de negócios e recuperação de desastres</t>
+          <t>Automação</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SDAF</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Usar uma SKU do Standard Load Balancer na frente de clusters ASCS e DB</t>
+          <t>O Azure dá suporte à automação de implantações SAP no Linux e no Windows. O SAP Deployment Automation Framework é uma ferramenta de orquestração de código aberto que pode implantar, instalar e manter ambientes SAP.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,15 +1136,19 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I9" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-platform-automation-and-devops</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1156,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Backup e restauração</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Ambas as VMs no par de HAs devem ser implantadas em um conjunto de disponibilidade, ou as zonas de disponibilidade devem ter o mesmo tamanho e a mesma configuração de armazenamento</t>
+          <t>Executar uma recuperação point-in-time para seus bancos de dados de produção em qualquer ponto e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1186,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/data-platform</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1194,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1202,12 +1210,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>A tecnologia de replicação de banco de dados nativo deve ser usada para sincronizar o banco de dados em um par de HA.</t>
+          <t>Teste os tempos de backup e recuperação para verificar se eles atendem aos requisitos de RTO para restaurar todos os sistemas simultaneamente após um desastre.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1222,17 +1230,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1248,18 +1252,18 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Executar uma recuperação point-in-time para seus bancos de dados de produção em qualquer ponto e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
+          <t>Você pode replicar o armazenamento padrão entre regiões emparelhadas, mas não pode usar o armazenamento padrão para armazenar seus bancos de dados ou discos rígidos virtuais. Você pode replicar backups somente entre regiões emparelhadas que você usa. Para todos os outros dados, execute sua replicação usando recursos nativos de DBMS, como SQL Server Always On ou SAP HANA System Replication. Use uma combinação de Site Recovery, rsync ou robocopy e outros softwares de terceiros para a camada de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1270,15 +1274,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1294,12 +1302,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>O CIDR para a rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da Vnet do site de recuperação de desastres</t>
+          <t>Ao usar as Zonas de Disponibilidade do Azure para obter alta disponibilidade, você deve considerar a latência entre servidores de aplicativos SAP e servidores de banco de dados. Para zonas com altas latências, os procedimentos operacionais precisam estar em vigor para garantir que os servidores de aplicativos SAP e os servidores de banco de dados estejam sendo executados na mesma zona o tempo todo.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,13 +1322,21 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1336,18 +1352,18 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de recuperação de desastres. A Recuperação de Site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site de recuperação de desastres. Ao invocar o DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substitua o VIP ou o SBD, execute o corosync.conf e muito mais).</t>
+          <t>Configure conexões de Rota Expressa do local para as regiões primária e secundária de recuperação de desastres do Azure. Além disso, como alternativa ao uso da Rota Expressa, considere configurar conexões VPN locais para as regiões primária e secundária de recuperação de desastres do Azure.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1356,13 +1372,21 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1378,18 +1402,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>A replicação de banco de dados nativo deve ser usada para sincronizar dados com o site de recuperação de desastres, em vez do Azure Site Recovery</t>
+          <t>Replique o conteúdo do cofre de chaves, como certificados, segredos ou chaves entre regiões, para que você possa descriptografar dados na região de recuperação de desastres.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1398,13 +1422,17 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="n"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/disaster-recovery-guidance</t>
+        </is>
+      </c>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1420,18 +1448,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Considere a disponibilidade do software SAP em relação a pontos únicos de falha. Isso inclui pontos únicos de falha em aplicativos como SGBDs utilizados nas arquiteturas SAP NetWeaver e SAP S/4HANA, SAP ABAP e ASCS + SCS. Além disso, outras ferramentas, como o SAP Web Dispatcher.</t>
+          <t>Emparelhar as redes virtuais primária e de recuperação de desastres. Por exemplo, para a replicação do sistema HANA, uma rede virtual SAP HANA DB precisa ser emparelhada para a rede virtual SAP HANA DB do site de recuperação de desastres.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1442,19 +1470,15 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-s4hana</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1470,18 +1494,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Para bancos de dados SAP e SAP, considere a implementação de clusters de failover automático. No Windows, o Clustering de Failover do Windows Server oferece suporte a failover. No Linux, Linux Pacemaker ou ferramentas de terceiros como SIOS Protection Suite e Veritas InfoScale suportam failover.</t>
+          <t>Se você usar o armazenamento do Azure NetApp Files para suas implantações SAP, no mínimo, crie duas contas do Azure NetApp Files na camada Premium, em duas regiões.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1492,19 +1516,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-service-levels</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,12 +1544,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>O Azure não oferece suporte a arquiteturas nas quais as VMs primária e secundária compartilham armazenamento para dados DBMS. Para a camada DBMS, o padrão de arquitetura comum é replicar bancos de dados ao mesmo tempo e com pilhas de armazenamento diferentes daquelas que as VMs primária e secundária usam.</t>
+          <t>A tecnologia de replicação de banco de dados nativo deve ser usada para sincronizar o banco de dados em um par de HA.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,12 +1594,12 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Os dados do DBMS e os arquivos de log de transação/refazer são armazenados no armazenamento em bloco com suporte do Azure ou nos Arquivos do Azure NetApp. Os Arquivos do Azure ou os Arquivos Premium do Azure não têm suporte como armazenamento para dados DBMS e/ou arquivos de log de refazer com a carga de trabalho SAP.</t>
+          <t>O CIDR da rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da VNet do site de recuperação de desastres</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1592,19 +1616,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/virtual-network/virtual-networks-faq</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1620,12 +1644,12 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar discos compartilhados do Azure no Windows para componentes ASCS + SCS e cenários específicos de alta disponibilidade. Configure seus clusters de failover separadamente para componentes da camada de aplicativo SAP e a camada DBMS. No momento, o Azure não oferece suporte a arquiteturas de alta disponibilidade que combinam componentes da camada de aplicativo SAP e a camada DBMS em um cluster de failover.</t>
+          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de recuperação de desastres. A Recuperação de Site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site de recuperação de desastres. Ao invocar o DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substitua o VIP ou o SBD, execute o corosync.conf e muito mais).</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1640,21 +1664,17 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1675,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>A maioria dos clusters de failover para ASCS (Application Layer Components, componentes da camada de aplicativo) SAP e a camada DBMS exigem um endereço IP virtual para um cluster de failover.  O Balanceador de Carga do Azure deve manipular o endereço IP virtual para todos os outros casos. Um princípio de design é usar um balanceador de carga por configuração de cluster. Recomendamos que você use a versão padrão do balanceador de carga (SKU do Standard Load Balancer).</t>
+          <t>Considere a disponibilidade do software SAP em relação a pontos únicos de falha. Isso inclui pontos únicos de falha em aplicativos como SGBDs utilizados nas arquiteturas SAP NetWeaver e SAP S/4HANA, SAP ABAP e ASCS + SCS. Além disso, outras ferramentas, como o SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1692,19 +1712,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1725,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
+          <t>Para bancos de dados SAP e SAP, considere a implementação de clusters de failover automático. No Windows, o Clustering de Failover do Windows Server oferece suporte a failover. No Linux, Linux Pacemaker ou ferramentas de terceiros como SIOS Protection Suite e Veritas InfoScale suportam failover.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1742,19 +1762,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1775,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Antes de implantar sua infraestrutura de alta disponibilidade, e dependendo da região escolhida, determine se deseja implantar com um conjunto de disponibilidade do Azure ou uma zona de disponibilidade.</t>
+          <t>O Azure não oferece suporte a arquiteturas nas quais as VMs primária e secundária compartilham armazenamento para dados DBMS. Para a camada DBMS, o padrão de arquitetura comum é replicar bancos de dados ao mesmo tempo e com pilhas de armazenamento diferentes daquelas que as VMs primária e secundária usam.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1792,19 +1812,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1825,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Se desejar atender aos SLAs de infraestrutura de seus aplicativos para componentes SAP (serviços centrais, servidores de aplicativos e bancos de dados), você deverá escolher as mesmas opções de alta disponibilidade (VMs, conjuntos de disponibilidade, zonas de disponibilidade) para todos os componentes.</t>
+          <t>Os dados do DBMS e os arquivos de log de transação/refazer são armazenados no armazenamento em bloco com suporte do Azure ou nos Arquivos do Azure NetApp. Os Arquivos do Azure ou os Arquivos Premium do Azure não têm suporte como armazenamento para dados DBMS e/ou arquivos de log de refazer com a carga de trabalho SAP.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1842,15 +1862,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1871,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
+          <t>Você pode usar discos compartilhados do Azure no Windows para componentes ASCS + SCS e cenários específicos de alta disponibilidade. Configure seus clusters de failover separadamente para componentes da camada de aplicativo SAP e a camada DBMS. No momento, o Azure não oferece suporte a arquiteturas de alta disponibilidade que combinam componentes da camada de aplicativo SAP e a camada DBMS em um cluster de failover.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1888,19 +1912,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1921,13 +1945,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Você não pode implantar conjuntos de disponibilidade do Azure em uma zona de disponibilidade do Azure, a menos que use grupos de posicionamento de proximidade.</t>
+          <t>A maioria dos clusters de failover para ASCS (Application Layer Components, componentes da camada de aplicativo) SAP e a camada DBMS exigem um endereço IP virtual para um cluster de failover.  O Balanceador de Carga do Azure deve manipular o endereço IP virtual para todos os outros casos. Um princípio de design é usar um balanceador de carga por configuração de cluster. Recomendamos que você use a versão padrão do balanceador de carga (SKU do Standard Load Balancer).</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1938,19 +1962,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Ao criar conjuntos de disponibilidade, use o número máximo de domínios de falha e atualize domínios disponíveis. Por exemplo, se você implantar mais de duas VMs em um conjunto de disponibilidade, use o número máximo de domínios de falha (três) e domínios de atualização suficientes para limitar o efeito de possíveis falhas de hardware físico, interrupções de rede ou interrupções de energia, além da manutenção planejada do Azure. O número padrão de domínios de falha é dois e você não pode alterá-lo online mais tarde.</t>
+          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,19 +2012,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2021,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Quando você usa grupos de posicionamento de proximidade do Azure em uma implantação de conjunto de disponibilidade, todos os três componentes SAP (serviços centrais, servidor de aplicativos e banco de dados) devem estar no mesmo grupo de posicionamento de proximidade.</t>
+          <t>Antes de implantar sua infraestrutura de alta disponibilidade, e dependendo da região escolhida, determine se deseja implantar com um conjunto de disponibilidade do Azure ou uma zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2038,14 +2062,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2066,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
+          <t>Se desejar atender aos SLAs de infraestrutura de seus aplicativos para componentes SAP (serviços centrais, servidores de aplicativos e bancos de dados), você deverá escolher as mesmas opções de alta disponibilidade (VMs, conjuntos de disponibilidade, zonas de disponibilidade) para todos os componentes.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2083,14 +2112,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2101,23 +2130,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Fazer solicitações de cota para SKU e zonas de VM corretas</t>
+          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2126,12 +2155,21 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2142,23 +2180,23 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Você não pode implantar conjuntos de disponibilidade do Azure em uma zona de disponibilidade do Azure, a menos que use grupos de posicionamento de proximidade.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2169,19 +2207,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2192,23 +2230,23 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
+          <t>Ao criar conjuntos de disponibilidade, use o número máximo de domínios de falha e atualize domínios disponíveis. Por exemplo, se você implantar mais de duas VMs em um conjunto de disponibilidade, use o número máximo de domínios de falha (três) e domínios de atualização suficientes para limitar o efeito de possíveis falhas de hardware físico, interrupções de rede ou interrupções de energia, além da manutenção planejada do Azure. O número padrão de domínios de falha é dois e você não pode alterá-lo online mais tarde.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2219,19 +2257,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2242,23 +2280,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
+          <t>Quando você usa grupos de posicionamento de proximidade do Azure em uma implantação de conjunto de disponibilidade, todos os três componentes SAP (serviços centrais, servidor de aplicativos e banco de dados) devem estar no mesmo grupo de posicionamento de proximidade.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2269,7 +2307,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2277,7 +2315,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2288,23 +2326,23 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2315,19 +2353,15 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2338,23 +2372,23 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Use um dos seguintes serviços para executar clusters de serviços centrais SAP, dependendo do sistema operacional.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,17 +2397,21 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="n"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2384,17 +2422,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
+          <t>No momento, o Azure não oferece suporte à combinação de ASCS e HA de banco de dados no mesmo cluster do Linux Pacemaker; Separe-os em agrupamentos individuais. No entanto, você pode combinar até cinco clusters de serviços centrais em um par de VMs.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2411,19 +2449,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-suse-multi-sid</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2434,17 +2472,17 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Implante ambas as VMs no par de alta disponibilidade em um conjunto de disponibilidade ou em zonas de disponibilidade. Essas VMs devem ter o mesmo tamanho e a mesma configuração de armazenamento.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2459,17 +2497,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2480,17 +2518,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>O Azure oferece suporte à instalação e configuração de instâncias SAP HANA e ASCS/SCS e ERS no mesmo cluster de alta disponibilidade em execução no Red Hat Enterprise Linux (RHEL).</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2507,15 +2545,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-with-hana-ascs-ers-dialog-instance</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2526,23 +2568,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
+          <t>Execute todos os sistemas de produção em SSDs gerenciados Premium e use o Azure NetApp Files ou o Ultra Disk Storage. Pelo menos o disco do sistema operacional deve estar na camada Premium para que você possa obter melhor desempenho e o melhor SLA.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2553,15 +2595,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2572,23 +2618,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP HANA</t>
+          <t>Você deve executar o SAP HANA no Azure somente nos tipos de armazenamento certificados pela SAP. Observe que determinados volumes devem ser executados em determinadas configurações de disco, quando aplicável. Essas configurações incluem a habilitação do Acelerador de Gravação e o uso do armazenamento Premium. Você também precisa garantir que o sistema de arquivos executado no armazenamento seja compatível com o DBMS executado na máquina.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2599,15 +2645,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-operations-storage</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2618,23 +2668,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
+          <t>Considere configurar a alta disponibilidade dependendo do tipo de armazenamento usado para suas cargas de trabalho SAP. Alguns serviços de armazenamento disponíveis no Azure não têm suporte no Azure Site Recovery, portanto, sua configuração de alta disponibilidade pode ser diferente.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2645,15 +2695,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-overview-guide#storage</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2664,23 +2718,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
+          <t>Diferentes serviços de armazenamento nativos do Azure (como Arquivos do Azure, Arquivos do Azure NetApp, Disco Compartilhado do Azure) podem não estar disponíveis em todas as regiões. Portanto, para ter uma configuração SAP semelhante na região de DR após o failover, certifique-se de que o respectivo serviço de armazenamento seja oferecido no local de DR.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2691,7 +2745,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://azure.microsoft.com/ja-jp/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2699,7 +2753,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2710,17 +2764,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
+          <t>Fazer solicitações de cota para SKU e zonas de VM corretas</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2735,17 +2789,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2756,17 +2806,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Otimização de Custos</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP BTP</t>
+          <t>Automatize o Start-Stop do sistema SAP para gerenciar custos.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2783,7 +2833,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2791,7 +2841,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2812,13 +2862,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2829,14 +2879,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2847,17 +2902,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
+          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2874,19 +2929,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2897,23 +2952,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
+          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2924,19 +2979,15 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2947,23 +2998,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2974,19 +3025,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2997,23 +3048,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3022,21 +3073,17 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3047,23 +3094,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
+          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3074,15 +3121,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3093,23 +3144,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3118,17 +3169,17 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3139,23 +3190,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3166,19 +3217,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3189,17 +3236,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
+          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3216,19 +3263,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3239,23 +3281,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
+          <t>Implementar SSO no SAP HANA</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3266,19 +3308,15 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3289,17 +3327,17 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
+          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3316,14 +3354,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3334,23 +3372,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
+          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3361,14 +3399,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3379,17 +3417,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
+          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3406,19 +3444,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3429,23 +3462,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
+          <t>Implementar SSO no SAP BTP</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3456,14 +3489,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3474,17 +3507,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
+          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3501,14 +3534,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3519,17 +3552,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
+          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3546,19 +3579,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3569,23 +3602,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3596,19 +3629,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3619,23 +3652,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3646,19 +3679,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3669,17 +3702,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3696,19 +3729,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3719,23 +3752,23 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3746,19 +3779,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3769,23 +3798,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3796,19 +3825,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3819,17 +3844,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3846,19 +3871,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3869,17 +3894,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
+          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3896,15 +3921,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3920,12 +3949,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
+          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3942,19 +3971,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3970,12 +3999,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
+          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3992,19 +4021,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4020,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
+          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4042,19 +4067,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4070,12 +4091,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4092,19 +4113,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4120,12 +4141,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4142,7 +4163,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4150,7 +4171,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4166,12 +4187,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4188,19 +4209,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4216,12 +4233,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
+          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4238,15 +4255,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4262,12 +4283,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4284,15 +4305,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4308,12 +4333,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
+          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4330,19 +4355,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4358,18 +4383,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
+          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4380,19 +4405,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,17 +4428,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4430,19 +4455,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,17 +4478,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
+          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4480,19 +4505,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,23 +4528,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4530,19 +4555,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,17 +4578,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
+          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4580,19 +4605,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,17 +4624,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
+          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4630,19 +4651,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,17 +4674,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4680,19 +4701,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,17 +4724,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
+          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4730,19 +4751,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,17 +4774,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4780,19 +4801,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,23 +4824,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
+          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,19 +4851,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,23 +4870,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4880,19 +4897,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,23 +4920,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4930,19 +4947,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,23 +4966,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
+          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4980,19 +4993,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,17 +5012,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5030,19 +5039,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,17 +5062,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
+          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5080,19 +5089,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5108,12 +5117,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5130,19 +5139,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5158,12 +5167,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5180,19 +5189,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5208,12 +5217,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5230,19 +5239,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,12 +5267,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5280,19 +5289,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,18 +5317,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5330,19 +5339,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,18 +5367,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5380,19 +5389,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,12 +5417,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5430,19 +5439,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,12 +5467,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
+          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5480,19 +5489,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,12 +5517,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
+          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5530,19 +5539,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5567,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,19 +5589,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,12 +5617,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5630,19 +5639,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,18 +5667,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5680,19 +5689,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,18 +5717,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5730,19 +5739,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,12 +5767,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5780,15 +5789,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5799,17 +5812,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5826,19 +5839,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5849,17 +5862,17 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
+          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5876,19 +5889,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,23 +5912,23 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,15 +5939,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5945,23 +5962,23 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5972,19 +5989,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5995,23 +6012,23 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de servidores de banco de dados SAP HANA no Azrue usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6022,19 +6039,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6045,23 +6062,23 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6089,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,23 +6112,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6139,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6145,17 +6162,17 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
+          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6172,19 +6189,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6195,23 +6212,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6222,19 +6239,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6245,23 +6262,23 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6289,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6295,17 +6312,17 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6339,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6345,17 +6362,17 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6389,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6395,23 +6412,23 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6439,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6445,17 +6462,17 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6472,19 +6489,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6500,18 +6512,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,19 +6534,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6550,18 +6562,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6572,19 +6584,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6600,18 +6612,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,7 +6634,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6630,7 +6642,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6646,12 +6658,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6668,19 +6680,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6696,12 +6708,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6730,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6746,18 +6758,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6780,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6796,18 +6808,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6818,19 +6830,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6846,18 +6858,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6880,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6896,18 +6908,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6930,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6946,18 +6958,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6980,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,23 +7003,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Configuração de disco para Oracle, SQL, HANA</t>
+          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7016,12 +7028,21 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7030,208 +7051,645 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+        </is>
+      </c>
       <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+        </is>
+      </c>
       <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+        </is>
+      </c>
       <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+        </is>
+      </c>
       <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
       <c r="P137" s="25" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="21" t="n"/>
-      <c r="B138" s="21" t="n"/>
-      <c r="C138" s="21" t="n"/>
+      <c r="A138" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C138" s="21" t="inlineStr">
+        <is>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+        </is>
+      </c>
       <c r="D138" s="21" t="n"/>
-      <c r="E138" s="21" t="n"/>
+      <c r="E138" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
-      <c r="L138" s="25" t="n"/>
+      <c r="L138" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M138" s="25" t="n"/>
       <c r="N138" s="25" t="n"/>
       <c r="O138" s="25" t="n"/>
       <c r="P138" s="25" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="21" t="n"/>
-      <c r="B139" s="21" t="n"/>
-      <c r="C139" s="21" t="n"/>
+      <c r="A139" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C139" s="21" t="inlineStr">
+        <is>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+        </is>
+      </c>
       <c r="D139" s="21" t="n"/>
-      <c r="E139" s="21" t="n"/>
+      <c r="E139" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
-      <c r="L139" s="25" t="n"/>
+      <c r="L139" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M139" s="25" t="n"/>
       <c r="N139" s="25" t="n"/>
       <c r="O139" s="25" t="n"/>
       <c r="P139" s="25" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="21" t="n"/>
-      <c r="B140" s="21" t="n"/>
-      <c r="C140" s="21" t="n"/>
+      <c r="A140" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C140" s="21" t="inlineStr">
+        <is>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D140" s="21" t="n"/>
-      <c r="E140" s="21" t="n"/>
+      <c r="E140" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
-      <c r="L140" s="25" t="n"/>
+      <c r="L140" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M140" s="25" t="n"/>
       <c r="N140" s="25" t="n"/>
       <c r="O140" s="25" t="n"/>
       <c r="P140" s="25" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="21" t="n"/>
-      <c r="B141" s="21" t="n"/>
-      <c r="C141" s="21" t="n"/>
+      <c r="A141" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C141" s="21" t="inlineStr">
+        <is>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+        </is>
+      </c>
       <c r="D141" s="21" t="n"/>
-      <c r="E141" s="21" t="n"/>
+      <c r="E141" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
-      <c r="L141" s="25" t="n"/>
+      <c r="L141" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M141" s="25" t="n"/>
       <c r="N141" s="25" t="n"/>
       <c r="O141" s="25" t="n"/>
       <c r="P141" s="25" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="21" t="n"/>
-      <c r="B142" s="21" t="n"/>
-      <c r="C142" s="21" t="n"/>
+      <c r="A142" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C142" s="21" t="inlineStr">
+        <is>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D142" s="21" t="n"/>
-      <c r="E142" s="21" t="n"/>
+      <c r="E142" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
-      <c r="L142" s="25" t="n"/>
+      <c r="L142" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M142" s="25" t="n"/>
       <c r="N142" s="25" t="n"/>
       <c r="O142" s="25" t="n"/>
       <c r="P142" s="25" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="21" t="n"/>
-      <c r="B143" s="21" t="n"/>
-      <c r="C143" s="21" t="n"/>
+      <c r="A143" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C143" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+        </is>
+      </c>
       <c r="D143" s="21" t="n"/>
-      <c r="E143" s="21" t="n"/>
+      <c r="E143" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="n"/>
+      <c r="H143" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
-      <c r="L143" s="25" t="n"/>
+      <c r="L143" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M143" s="25" t="n"/>
       <c r="N143" s="25" t="n"/>
       <c r="O143" s="25" t="n"/>
@@ -9718,7 +10176,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Otimização de Custos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>No caso de usar o Armazenamento Premium do Azure com o SAP HANA, o armazenamento SSD padrão do Azure pode ser usado para selecionar uma solução de armazenamento econômica. No entanto, observe que escolher o armazenamento padrão SSD ou HDD padrão do Azure afetará o SLA das VMs individuais. Além disso, para sistemas com menor taxa de transferência de E/S e baixa latência, como ambientes que não são de produção, VMs de série mais baixa podem ser usadas.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Otimização de Custos</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
+          <t>Como uma configuração alternativa de baixo custo (multiuso), você pode escolher uma SKU de baixo desempenho para suas VMs de servidor de banco de dados HANA que não são de produção. No entanto, é importante observar que alguns tipos de VM, como a série E, não são certificados pelo HANA (SAP HANA Hardware Directory) ou não podem atingir latência de armazenamento inferior a 1ms.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP HANA</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
+          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
+          <t>Implementar SSO no SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
+          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP BTP</t>
+          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
+          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
+          <t>Implementar SSO no SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
+          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
+          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
+          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
+          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
+          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
+          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
+          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
+          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
+          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
+          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,7 +4626,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4651,19 +4643,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,7 +4676,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
+          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4701,19 +4693,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,13 +4722,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
+          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
+          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,12 +4867,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4897,19 +4889,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,13 +4922,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
+          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4947,7 +4939,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4955,7 +4947,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,15 +4985,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,7 +5018,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
+          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5039,19 +5035,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,13 +5064,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
+          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5089,19 +5081,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,17 +5150,17 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
+          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
+          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
+          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
+          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
+          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
+          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
+          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
+          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
+          <t>Revise os backups de banco de dados do SAP HANA para VMs do Azure.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
+          <t>Revise o monitoramento interno do Site Recovery, quando usado para SAP.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
+          <t>Revise as diretrizes de monitoramento do cenário do sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
+          <t>Revise o Banco de Dados Oracle nas estratégias de backup de VM do Linux do Azure.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Analise o uso do Armazenamento de Blobs do Azure com o SQL Server 2016.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
+          <t>Analise o uso do Backup Automatizado v2 para VMs do Azure.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Ativando o acelerador de gravação para a série M ao usar discos premium (V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Testar a latência da zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+          <t>Ative o SAP EarlyWatch Alert para todos os componentes SAP.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+          <t>Revise a latência do servidor de aplicativos SAP para o servidor de banco de dados usando o relatório SAP ABAPMeter /SSA/CAT.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Revise o monitoramento de desempenho do SQL Server usando o CCMS.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Teste a latência de rede entre VMs de camada de aplicativo SAP e VMs DBMS (NIPING).</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Revise os alertas do SAP HANA Studio.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>Execute verificações de integridade do SAP HANA usando HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Otimização de Custos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>No caso de usar o Armazenamento Premium do Azure com o SAP HANA, o armazenamento SSD padrão do Azure pode ser usado para selecionar uma solução de armazenamento econômica. No entanto, observe que escolher o armazenamento padrão SSD ou HDD padrão do Azure afetará o SLA das VMs individuais. Além disso, para sistemas com menor taxa de transferência de E/S e baixa latência, como ambientes que não são de produção, VMs de série mais baixa podem ser usadas.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Otimização de Custos</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
+          <t>Como uma configuração alternativa de baixo custo (multiuso), você pode escolher uma SKU de baixo desempenho para suas VMs de servidor de banco de dados HANA que não são de produção. No entanto, é importante observar que alguns tipos de VM, como a série E, não são certificados pelo HANA (SAP HANA Hardware Directory) ou não podem atingir latência de armazenamento inferior a 1ms.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Impor a propagação principal para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP HANA</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
+          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
+          <t>Implementar SSO no SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
+          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP BTP</t>
+          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
+          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
+          <t>Implementar SSO no SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
+          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
+          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
+          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
+          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
+          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
+          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
+          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
+          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
+          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
+          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,13 +4626,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
+          <t>Execute uma verificação de qualidade para o SAP HANA na infraestrutura provisionada do Azure para verificar se as VMs provisionadas estão em conformidade com as práticas recomendadas do SAP HANA no Azure.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4651,19 +4643,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,13 +4672,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
+          <t>Para cada assinatura do Azure, execute um teste de latência nas zonas de disponibilidade do Azure antes da implantação zonal para escolher zonas de baixa latência para implantação do SAP no Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4701,19 +4689,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,7 +4722,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
+          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4880,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Use o monitoramento de latência entre VMs para aplicativos sensíveis à latência.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4897,19 +4889,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4947,15 +4935,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
+          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,7 +4985,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5001,7 +4993,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,13 +5014,13 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
+          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5039,19 +5031,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
+          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5089,19 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Para SAP no Azure executando Oracle, uma coleção de scripts SQL pode ajudá-lo a diagnosticar problemas de desempenho.  Os relatórios do Automatic Workload Repository (AWR) contêm informações valiosas para diagnosticar problemas no sistema Oracle. Recomendamos que você execute um relatório AWR durante várias sessões e escolha horários de pico para ele, para garantir uma ampla cobertura para a análise.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,23 +5150,23 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
+          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
+          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
+          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>A atribuição de IP público à VM que executa o SAP Workload não é recomendada.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
+          <t>Considere reservar o endereço IP no lado do DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
+          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
+          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
+          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
+          <t>Revise os backups de banco de dados do SAP HANA para VMs do Azure.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
+          <t>Revise o monitoramento interno do Site Recovery, quando usado para SAP.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
+          <t>Revise as diretrizes de monitoramento do cenário do sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
+          <t>Revise o Banco de Dados Oracle nas estratégias de backup de VM do Linux do Azure.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Analise o uso do Armazenamento de Blobs do Azure com o SQL Server 2016.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
+          <t>Analise o uso do Backup Automatizado v2 para VMs do Azure.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Ativando o acelerador de gravação para a série M ao usar discos premium (V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Testar a latência da zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+          <t>Ative o SAP EarlyWatch Alert para todos os componentes SAP.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+          <t>Revise a latência do servidor de aplicativos SAP para o servidor de banco de dados usando o relatório SAP ABAPMeter /SSA/CAT.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Revise o monitoramento de desempenho do SQL Server usando o CCMS.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Teste a latência de rede entre VMs de camada de aplicativo SAP e VMs DBMS (NIPING).</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Revise os alertas do SAP HANA Studio.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>Execute verificações de integridade do SAP HANA usando HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Otimização de Custos</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Fazer solicitações de cota para SKU e zonas de VM corretas</t>
+          <t>Automatize o Start-Stop do sistema SAP para gerenciar custos.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2789,13 +2789,17 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2816,13 +2820,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Automatize o Start-Stop do sistema SAP para gerenciar custos.</t>
+          <t>No caso de usar o Armazenamento Premium do Azure com o SAP HANA, o armazenamento SSD padrão do Azure pode ser usado para selecionar uma solução de armazenamento econômica. No entanto, observe que escolher o armazenamento padrão SSD ou HDD padrão do Azure afetará o SLA das VMs individuais. Além disso, para sistemas com menor taxa de transferência de E/S e baixa latência, como ambientes que não são de produção, VMs de série mais baixa podem ser usadas.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2833,7 +2837,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2841,7 +2845,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2852,23 +2856,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Otimização de Custos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Como uma configuração alternativa de baixo custo (multiuso), você pode escolher uma SKU de baixo desempenho para suas VMs de servidor de banco de dados HANA que não são de produção. No entanto, é importante observar que alguns tipos de VM, como a série E, não são certificados pelo HANA (SAP HANA Hardware Directory) ou não podem atingir latência de armazenamento inferior a 1ms.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2883,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2912,13 +2911,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Aplicar a propagação do princípio para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2928,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
+          <t>Impor a propagação principal para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2982,12 +2981,16 @@
           <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
-      <c r="I47" s="15" t="n"/>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3028,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3073,17 +3071,21 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
+          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3119,21 +3121,17 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Você pode implementar o SSO no SAP GUI usando o SAP NetWeaver SSO ou uma solução de parceiro.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3169,17 +3167,21 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3215,17 +3217,17 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3263,14 +3265,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP HANA</t>
+          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3310,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3318,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
+          <t>Implementar SSO no SAP HANA</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3356,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3384,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
+          <t>Considere o Azure AD um provedor de identidade para sistemas SAP hospedados no RISE. Para obter mais informações, consulte Integrando o serviço ao Azure AD.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3401,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
+          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3446,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP BTP</t>
+          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3491,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
+          <t>Implementar SSO no SAP BTP</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3536,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3554,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Grupo de Gerenciamento e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
+          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3581,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3612,13 +3609,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
+          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3626,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t>Integre aplicativos fortemente acoplados na mesma assinatura SAP para evitar complexidade adicional de roteamento e gerenciamento</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3684,14 +3681,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3726,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3759,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
+          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3776,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,13 +3809,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
+          <t>A API de Cota é uma API REST que você pode usar para exibir e gerenciar cotas para serviços do Azure. Considere usá-lo, se necessário.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3825,7 +3826,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3833,7 +3834,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3871,19 +3872,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3900,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas, por exemplo. ANF, Zona etc.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3917,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,23 +3940,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
+          <t>Aproveite a marca de recurso do Azure para categorização de custos e agrupamento de recursos (: BillTo, Departamento (ou Unidade de Negócios), Ambiente (Produção, Estágio, Desenvolvimento), Camada (Camada da Web, Camada de Aplicativo), Proprietário do Aplicativo, ProjectName)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3971,19 +3967,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4004,13 +4000,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
+          <t>Ajude a proteger seu banco de dados HANA usando o serviço de Backup do Azure.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4021,15 +4017,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
+          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4067,7 +4067,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4075,7 +4075,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4096,13 +4096,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
+          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4113,19 +4113,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4142,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
+          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,15 +4159,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,13 +4192,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4209,7 +4209,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4217,7 +4217,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
+          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4255,19 +4255,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4284,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
+          <t>Use o Azure Update Manager para verificar o status das atualizações disponíveis para uma única VM ou várias VMs e considere agendar patches regulares.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4301,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,18 +4329,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
+          <t>Otimize e gerencie as operações do SAP Basis usando o SAP Landscape Management (LaMa). Use o conector SAP LaMa para Azure para realocar, copiar, clonar e atualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4355,19 +4351,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4388,13 +4384,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
+          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4401,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,13 +4434,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4455,19 +4451,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,7 +4484,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4505,19 +4501,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4534,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4551,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -5112,23 +5108,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5139,19 +5135,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5167,12 +5163,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5185,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5222,7 +5218,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5251,7 +5247,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5263,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
+          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5285,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5322,13 +5318,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
+          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5335,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,13 +5368,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Não há suporte para implantar qualquer NVA entre o aplicativo SAP e o servidor de banco de dados SAP</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5389,19 +5385,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,7 +5418,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5439,19 +5435,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5468,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
+          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5485,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5513,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de I.P pública à VM que executa o SAP Workload não é recomendada.</t>
+          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5535,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5572,7 +5568,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço I.P no lado do DR ao configurar o ASR</t>
+          <t>A atribuição de IP público à VM que executa o SAP Workload não é recomendada.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5589,19 +5585,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5618,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Considere reservar o endereço IP no lado do DR ao configurar o ASR</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5639,19 +5635,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5668,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5685,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,12 +5713,12 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5739,19 +5735,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5772,7 +5768,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, conexões de entrada não HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5785,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5818,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5835,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5868,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5885,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5918,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5939,7 +5935,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5951,7 +5947,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5968,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5985,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6035,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6063,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6085,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6122,13 +6118,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6139,19 +6135,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6189,19 +6185,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6218,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
+          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6235,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,13 +6268,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6289,19 +6285,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,13 +6318,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6339,19 +6335,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6401,7 +6397,7 @@
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6418,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
+          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6435,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6468,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>Se estiver usando o Load Balancer com sistemas operacionais convidados Linux, verifique se o parâmetro de rede Linux net.ipv4.tcp_timestamps está definido como 0.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6485,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,17 +6508,17 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
+          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6534,19 +6535,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,23 +6554,23 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
+          <t>Revise os backups de banco de dados do SAP HANA para VMs do Azure.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6584,19 +6581,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6600,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
+          <t>Revise o monitoramento interno do Site Recovery, quando usado para SAP.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6627,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6635,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,17 +6646,17 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
+          <t>Revise as diretrizes de monitoramento do cenário do sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6680,19 +6673,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,23 +6692,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
+          <t>Revise o Banco de Dados Oracle nas estratégias de backup de VM do Linux do Azure.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6730,19 +6719,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6738,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
+          <t>Analise o uso do Armazenamento de Blobs do Azure com o SQL Server 2016.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6765,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6784,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Analise o uso do Backup Automatizado v2 para VMs do Azure.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6811,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,23 +6829,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Excelência Operacional</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
+          <t>Ativando o acelerador de gravação para a série M ao usar discos premium (V1)</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6878,21 +6854,12 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,17 +6870,17 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Testar a latência da zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6930,19 +6897,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6915,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Ative o SAP EarlyWatch Alert para todos os componentes SAP.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6942,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6965,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+          <t>Revise a latência do servidor de aplicativos SAP para o servidor de banco de dados usando o relatório SAP ABAPMeter /SSA/CAT.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6992,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7015,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+          <t>Revise o monitoramento de desempenho do SQL Server usando o CCMS.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7078,21 +7040,12 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+          <t>Teste a latência de rede entre VMs de camada de aplicativo SAP e VMs DBMS (NIPING).</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7130,19 +7083,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7106,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Revise os alertas do SAP HANA Studio.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7133,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7151,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Execute verificações de integridade do SAP HANA usando HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7178,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7258,18 +7201,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7223,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7251,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7273,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7301,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7323,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,12 +7346,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7425,19 +7368,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7396,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7418,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7446,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7468,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,12 +7496,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7575,19 +7518,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7546,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7568,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7596,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7618,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,240 +7639,745 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>criptografar dados em trânsito integrando o produto de segurança de terceiros com comunicações de rede seguras (SNC) para DIAG (SAP GUI), RFC e SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Segredos</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10176,7 +10624,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -10728,6 +10728,11 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Esta verificação ainda não foi analisada</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -10750,6 +10755,11 @@
           <t>Topologia de rede e conectividade</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Há um item de ação associado a essa verificação</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -10772,6 +10782,11 @@
           <t>Segurança, Governança e Compliance</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -10781,12 +10796,17 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Não é necessário</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Gestão e Monitoramento</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -10808,7 +10828,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not applicable for current design</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -7996,18 +7996,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8018,14 +8018,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8046,7 +8051,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8063,19 +8068,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8096,13 +8101,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8113,19 +8118,19 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8146,7 +8151,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8163,19 +8168,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8196,13 +8201,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8213,19 +8218,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8246,13 +8251,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8263,19 +8268,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8296,13 +8301,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8313,19 +8318,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8334,50 +8339,16 @@
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="inlineStr">
-        <is>
-          <t>Segurança, Governança e Compliance</t>
-        </is>
-      </c>
-      <c r="B158" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C158" s="21" t="inlineStr">
-        <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
-        </is>
-      </c>
+      <c r="A158" s="21" t="n"/>
+      <c r="B158" s="21" t="n"/>
+      <c r="C158" s="21" t="n"/>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E158" s="21" t="n"/>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H158" s="15" t="n"/>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="inlineStr">
-        <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
-        </is>
-      </c>
+      <c r="L158" s="25" t="n"/>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10624,7 +10595,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração (Habilitando IP flutuante) reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.pt.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>O Azure Center for SAP solutions (ACSS) é uma oferta do Azure que torna o SAP uma carga de trabalho de nível superior no Azure. O ACSS é uma solução de ponta a ponta que permite criar e executar sistemas SAP como uma carga de trabalho unificada no Azure e fornece uma base mais perfeita para a inovação. Você pode aproveitar os recursos de gerenciamento para sistemas SAP novos e existentes baseados no Azure.</t>
+          <t>O ACSS (Centro de Soluções SAP) do Azure é uma oferta do Azure que torna o SAP uma carga de trabalho de nível superior no Azure. O ACSS é uma solução de ponta a ponta que permite criar e executar sistemas SAP como uma carga de trabalho unificada no Azure e fornece uma base mais perfeita para a inovação. Você pode aproveitar os recursos de gerenciamento para sistemas SAP novos e existentes baseados no Azure.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>O Azure dá suporte à automação de implantações SAP no Linux e no Windows. O SAP Deployment Automation Framework é uma ferramenta de orquestração de código aberto que pode implantar, instalar e manter ambientes SAP.</t>
+          <t>O Azure dá suporte à automação de implantações do SAP no Linux e no Windows. O SAP Deployment Automation Framework é uma ferramenta de orquestração de software livre que pode implementar, instalar e manter ambientes SAP.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Executar uma recuperação point-in-time para seus bancos de dados de produção em qualquer ponto e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
+          <t>Execute uma recuperação pontual para seus bancos de dados de produção a qualquer momento e em um período de tempo que atenda ao seu RTO; a recuperação point-in-time normalmente inclui erros do operador que excluem dados na camada DBMS ou por meio do SAP, incidentalmente</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Você pode replicar o armazenamento padrão entre regiões emparelhadas, mas não pode usar o armazenamento padrão para armazenar seus bancos de dados ou discos rígidos virtuais. Você pode replicar backups somente entre regiões emparelhadas que você usa. Para todos os outros dados, execute sua replicação usando recursos nativos de DBMS, como SQL Server Always On ou SAP HANA System Replication. Use uma combinação de Site Recovery, rsync ou robocopy e outros softwares de terceiros para a camada de aplicativos SAP.</t>
+          <t>Você pode replicar o armazenamento padrão entre regiões emparelhadas, mas não pode usar o armazenamento padrão para armazenar seus bancos de dados ou discos rígidos virtuais. Você pode replicar backups somente entre regiões emparelhadas que você usa. Para todos os outros dados, execute a replicação usando recursos nativos do DBMS, como SQL Server Always On ou Replicação do Sistema SAP HANA. Use uma combinação de Site Recovery, rsync ou robocopy e outros softwares de terceiros para a camada de aplicativo SAP.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Ao usar as Zonas de Disponibilidade do Azure para obter alta disponibilidade, você deve considerar a latência entre servidores de aplicativos SAP e servidores de banco de dados. Para zonas com altas latências, os procedimentos operacionais precisam estar em vigor para garantir que os servidores de aplicativos SAP e os servidores de banco de dados estejam sendo executados na mesma zona o tempo todo.</t>
+          <t>Ao usar as Zonas de Disponibilidade do Azure para obter alta disponibilidade, você deve considerar a latência entre os servidores de aplicativos SAP e os servidores de banco de dados. Para zonas com altas latências, os procedimentos operacionais precisam estar em vigor para garantir que os servidores de aplicativos SAP e os servidores de banco de dados estejam em execução na mesma zona o tempo todo.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Configure conexões de Rota Expressa do local para as regiões primária e secundária de recuperação de desastres do Azure. Além disso, como alternativa ao uso da Rota Expressa, considere configurar conexões VPN locais para as regiões primária e secundária de recuperação de desastres do Azure.</t>
+          <t>Configure conexões do ExpressRoute do local para as regiões de recuperação de desastre primárias e secundárias do Azure. Além disso, como alternativa ao uso do ExpressRoute, considere configurar conexões VPN do local para as regiões primárias e secundárias de recuperação de desastre do Azure.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Replique o conteúdo do cofre de chaves, como certificados, segredos ou chaves entre regiões, para que você possa descriptografar dados na região de recuperação de desastres.</t>
+          <t>Replique o conteúdo do cofre de chaves, como certificados, segredos ou chaves entre regiões, para que você possa descriptografar dados na região de recuperação de desastre.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Emparelhar as redes virtuais primária e de recuperação de desastres. Por exemplo, para a replicação do sistema HANA, uma rede virtual SAP HANA DB precisa ser emparelhada para a rede virtual SAP HANA DB do site de recuperação de desastres.</t>
+          <t>Emparelhe as redes virtuais primárias e de recuperação de desastre. Por exemplo, para a Replicação do Sistema HANA, uma rede virtual de banco de dados do SAP HANA precisa ser emparelhada com a rede virtual de banco de dados do SAP HANA do site de recuperação de desastres.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>A tecnologia de replicação de banco de dados nativo deve ser usada para sincronizar o banco de dados em um par de HA.</t>
+          <t>A tecnologia de replicação de banco de dados nativa deve ser usada para sincronizar o banco de dados em um par de HA.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>O CIDR da rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da VNet do site de recuperação de desastres</t>
+          <t>O CIDR da VNet (rede virtual) primária não deve entrar em conflito ou se sobrepor ao CIDR da VNet do site de recuperação de desastre</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de recuperação de desastres. A Recuperação de Site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site de recuperação de desastres. Ao invocar o DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substitua o VIP ou o SBD, execute o corosync.conf e muito mais).</t>
+          <t>Use o Site Recovery para replicar um servidor de aplicativos para um site de recuperação de desastre. O Site Recovery também pode ajudar a replicar VMs de cluster de serviços centrais para o site de recuperação de desastre. Ao invocar a DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substituir o VIP ou SBD, executar corosync.conf e muito mais).</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Considere a disponibilidade do software SAP em relação a pontos únicos de falha. Isso inclui pontos únicos de falha em aplicativos como SGBDs utilizados nas arquiteturas SAP NetWeaver e SAP S/4HANA, SAP ABAP e ASCS + SCS. Além disso, outras ferramentas, como o SAP Web Dispatcher.</t>
+          <t>Considere a disponibilidade do software SAP em relação a pontos únicos de falha. Isso inclui pontos únicos de falha em aplicativos, como SGBDs utilizados nas arquiteturas SAP NetWeaver e SAP S/4HANA, SAP AP e ASCS + SCS. Além disso, outras ferramentas, como o SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Para bancos de dados SAP e SAP, considere a implementação de clusters de failover automático. No Windows, o Clustering de Failover do Windows Server oferece suporte a failover. No Linux, Linux Pacemaker ou ferramentas de terceiros como SIOS Protection Suite e Veritas InfoScale suportam failover.</t>
+          <t>Para bancos de dados SAP e SAP, considere implementar clusters de failover automáticos. No Windows, o Clustering de Failover do Windows Server dá suporte ao failover. No Linux, o Linux Pacemaker ou ferramentas de terceiros, como o SIOS Protection Suite e o Veritas InfoScale, oferecem suporte ao failover.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>O Azure não oferece suporte a arquiteturas nas quais as VMs primária e secundária compartilham armazenamento para dados DBMS. Para a camada DBMS, o padrão de arquitetura comum é replicar bancos de dados ao mesmo tempo e com pilhas de armazenamento diferentes daquelas que as VMs primária e secundária usam.</t>
+          <t>O Azure não dá suporte a arquiteturas nas quais as VMs primárias e secundárias compartilham armazenamento para dados do DBMS. Para a camada DBMS, o padrão de arquitetura comum é replicar bancos de dados ao mesmo tempo e com pilhas de armazenamento diferentes daquelas que as VMs primárias e secundárias usam.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Os dados do DBMS e os arquivos de log de transação/refazer são armazenados no armazenamento em bloco com suporte do Azure ou nos Arquivos do Azure NetApp. Os Arquivos do Azure ou os Arquivos Premium do Azure não têm suporte como armazenamento para dados DBMS e/ou arquivos de log de refazer com a carga de trabalho SAP.</t>
+          <t>Os dados do DBMS e os arquivos de log de transação/redo são armazenados no armazenamento em blocos com suporte do Azure ou no Azure NetApp Files. Não há suporte para Arquivos do Azure ou Arquivos Premium do Azure como armazenamento para dados do DBMS e/ou arquivos de log de restauração com carga de trabalho do SAP.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar discos compartilhados do Azure no Windows para componentes ASCS + SCS e cenários específicos de alta disponibilidade. Configure seus clusters de failover separadamente para componentes da camada de aplicativo SAP e a camada DBMS. No momento, o Azure não oferece suporte a arquiteturas de alta disponibilidade que combinam componentes da camada de aplicativo SAP e a camada DBMS em um cluster de failover.</t>
+          <t>Você pode usar discos compartilhados do Azure no Windows para componentes ASCS + SCS e cenários específicos de alta disponibilidade. Configure seus clusters de failover separadamente para os componentes da camada de aplicativo SAP e a camada DBMS. Atualmente, o Azure não dá suporte a arquiteturas de alta disponibilidade que combinam componentes da camada de aplicativo SAP e a camada DBMS em um cluster de failover.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>A maioria dos clusters de failover para ASCS (Application Layer Components, componentes da camada de aplicativo) SAP e a camada DBMS exigem um endereço IP virtual para um cluster de failover.  O Balanceador de Carga do Azure deve manipular o endereço IP virtual para todos os outros casos. Um princípio de design é usar um balanceador de carga por configuração de cluster. Recomendamos que você use a versão padrão do balanceador de carga (SKU do Standard Load Balancer).</t>
+          <t>A maioria dos clusters de failover para componentes da camada de aplicativo SAP (ASCS) e a camada DBMS exigem um endereço IP virtual para um cluster de failover.  O Azure Load Balancer deve lidar com o endereço IP virtual para todos os outros casos. Um princípio de design é usar um balanceador de carga por configuração de cluster. Recomendamos que você use a versão padrão do balanceador de carga (SKU do Balanceador de Carga Padrão).</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
+          <t>Certifique-se de que o IP flutuante esteja habilitado no balanceador de carga</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Antes de implantar sua infraestrutura de alta disponibilidade, e dependendo da região escolhida, determine se deseja implantar com um conjunto de disponibilidade do Azure ou uma zona de disponibilidade.</t>
+          <t>Antes de implantar sua infraestrutura de alta disponibilidade e dependendo da região escolhida, determine se deseja implantar com um conjunto de disponibilidade do Azure ou uma zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Se desejar atender aos SLAs de infraestrutura de seus aplicativos para componentes SAP (serviços centrais, servidores de aplicativos e bancos de dados), você deverá escolher as mesmas opções de alta disponibilidade (VMs, conjuntos de disponibilidade, zonas de disponibilidade) para todos os componentes.</t>
+          <t>Se você quiser atender aos SLAs de infraestrutura para seus aplicativos para componentes SAP (serviços centrais, servidores de aplicativos e bancos de dados), deverá escolher as mesmas opções de alta disponibilidade (VMs, conjuntos de disponibilidade, zonas de disponibilidade) para todos os componentes.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
+          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados e VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Você não pode implantar conjuntos de disponibilidade do Azure em uma zona de disponibilidade do Azure, a menos que use grupos de posicionamento de proximidade.</t>
+          <t>Você não pode implantar conjuntos de disponibilidade do Azure em uma zona de disponibilidade do Azure, a menos que use grupos de posicionamento por proximidade.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Ao criar conjuntos de disponibilidade, use o número máximo de domínios de falha e atualize domínios disponíveis. Por exemplo, se você implantar mais de duas VMs em um conjunto de disponibilidade, use o número máximo de domínios de falha (três) e domínios de atualização suficientes para limitar o efeito de possíveis falhas de hardware físico, interrupções de rede ou interrupções de energia, além da manutenção planejada do Azure. O número padrão de domínios de falha é dois e você não pode alterá-lo online mais tarde.</t>
+          <t>Ao criar conjuntos de disponibilidade, use o número máximo de domínios de falha e atualize os domínios disponíveis. Por exemplo, se você implantar mais de duas VMs em um conjunto de disponibilidade, use o número máximo de domínios de falha (três) e domínios de atualização suficientes para limitar o efeito de possíveis falhas de hardware físico, interrupções de rede ou interrupções de energia, além da manutenção planejada do Azure. O número padrão de domínios de falha é dois e você não pode alterá-lo online posteriormente.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Quando você usa grupos de posicionamento de proximidade do Azure em uma implantação de conjunto de disponibilidade, todos os três componentes SAP (serviços centrais, servidor de aplicativos e banco de dados) devem estar no mesmo grupo de posicionamento de proximidade.</t>
+          <t>Quando você usa grupos de posicionamento por proximidade do Azure em uma implantação de conjunto de disponibilidade, todos os três componentes SAP (serviços centrais, servidor de aplicativos e banco de dados) devem estar no mesmo grupo de posicionamento por proximidade.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
+          <t>Use um grupo de posicionamento por proximidade por SID SAP. Os grupos não se estendem por Zonas de Disponibilidade ou regiões do Azure</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use um dos seguintes serviços para executar clusters de serviços centrais SAP, dependendo do sistema operacional.</t>
+          <t>Use um dos serviços a seguir para executar clusters de serviços centrais do SAP, dependendo do sistema operacional.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>No momento, o Azure não oferece suporte à combinação de ASCS e HA de banco de dados no mesmo cluster do Linux Pacemaker; Separe-os em agrupamentos individuais. No entanto, você pode combinar até cinco clusters de serviços centrais em um par de VMs.</t>
+          <t>Atualmente, o Azure não dá suporte à combinação de ASCS e DB HA no mesmo cluster do Linux Pacemaker; separe-os em clusters individuais. No entanto, você pode combinar até cinco vários clusters de serviços centrais em um par de VMs.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>O Azure oferece suporte à instalação e configuração de instâncias SAP HANA e ASCS/SCS e ERS no mesmo cluster de alta disponibilidade em execução no Red Hat Enterprise Linux (RHEL).</t>
+          <t>O Azure dá suporte à instalação e configuração de instâncias do SAP HANA e ASCS/SCS e ERS no mesmo cluster de alta disponibilidade em execução no RHEL (Red Hat Enterprise Linux).</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Execute todos os sistemas de produção em SSDs gerenciados Premium e use o Azure NetApp Files ou o Ultra Disk Storage. Pelo menos o disco do sistema operacional deve estar na camada Premium para que você possa obter melhor desempenho e o melhor SLA.</t>
+          <t>Execute todos os sistemas de produção em SSDs gerenciados Premium e use o Azure NetApp Files ou o Armazenamento em Disco Ultra. Pelo menos o disco do sistema operacional deve estar na camada Premium para que você possa obter melhor desempenho e o melhor SLA.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Você deve executar o SAP HANA no Azure somente nos tipos de armazenamento certificados pela SAP. Observe que determinados volumes devem ser executados em determinadas configurações de disco, quando aplicável. Essas configurações incluem a habilitação do Acelerador de Gravação e o uso do armazenamento Premium. Você também precisa garantir que o sistema de arquivos executado no armazenamento seja compatível com o DBMS executado na máquina.</t>
+          <t>Você deve executar o SAP HANA no Azure somente nos tipos de armazenamento certificados pelo SAP. Observe que determinados volumes devem ser executados em determinadas configurações de disco, quando aplicável. Essas configurações incluem habilitar o Acelerador de Gravação e usar o armazenamento Premium. Você também precisa garantir que o sistema de arquivos executado no armazenamento seja compatível com o DBMS executado na máquina.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Considere configurar a alta disponibilidade dependendo do tipo de armazenamento usado para suas cargas de trabalho SAP. Alguns serviços de armazenamento disponíveis no Azure não têm suporte no Azure Site Recovery, portanto, sua configuração de alta disponibilidade pode ser diferente.</t>
+          <t>Considere configurar a alta disponibilidade dependendo do tipo de armazenamento que você usa para suas cargas de trabalho SAP. Alguns serviços de armazenamento disponíveis no Azure não têm suporte no Azure Site Recovery, portanto, sua configuração de alta disponibilidade pode ser diferente.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Diferentes serviços de armazenamento nativos do Azure (como Arquivos do Azure, Arquivos do Azure NetApp, Disco Compartilhado do Azure) podem não estar disponíveis em todas as regiões. Portanto, para ter uma configuração SAP semelhante na região de DR após o failover, certifique-se de que o respectivo serviço de armazenamento seja oferecido no local de DR.</t>
+          <t>Diferentes serviços de armazenamento nativos do Azure (como Arquivos do Azure, Azure NetApp Files, Disco Compartilhado do Azure) podem não estar disponíveis em todas as regiões. Portanto, para ter uma configuração SAP semelhante na região de recuperação de desastre após o failover, verifique se o respectivo serviço de armazenamento é oferecido no site de recuperação de desastre.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2764,7 +2764,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Otimização de Custos</t>
+          <t>Otimização de custos</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Automatize o Start-Stop do sistema SAP para gerenciar custos.</t>
+          <t>Automatize o sistema SAP Start-Stop para gerenciar custos.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2810,7 +2810,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Otimização de Custos</t>
+          <t>Otimização de custos</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>No caso de usar o Armazenamento Premium do Azure com o SAP HANA, o armazenamento SSD padrão do Azure pode ser usado para selecionar uma solução de armazenamento econômica. No entanto, observe que escolher o armazenamento padrão SSD ou HDD padrão do Azure afetará o SLA das VMs individuais. Além disso, para sistemas com menor taxa de transferência de E/S e baixa latência, como ambientes que não são de produção, VMs de série mais baixa podem ser usadas.</t>
+          <t>No caso de usar o Armazenamento Premium do Azure com o SAP HANA, o armazenamento SSD Standard do Azure pode ser usado para selecionar uma solução de armazenamento econômica. No entanto, observe que escolher o armazenamento SSD Standard ou HDD Standard do Azure afetará o SLA das VMs individuais. Além disso, para sistemas com menor taxa de transferência de E/S e baixa latência, como ambientes de não produção, as VMs de série inferior podem ser usadas.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2856,7 +2856,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Otimização de Custos</t>
+          <t>Otimização de custos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Como uma configuração alternativa de baixo custo (multiuso), você pode escolher uma SKU de baixo desempenho para suas VMs de servidor de banco de dados HANA que não são de produção. No entanto, é importante observar que alguns tipos de VM, como a série E, não são certificados pelo HANA (SAP HANA Hardware Directory) ou não podem atingir latência de armazenamento inferior a 1ms.</t>
+          <t>Como uma configuração alternativa de baixo custo (multiuso), você pode escolher um SKU de baixo desempenho para suas VMs de servidor de banco de dados HANA que não são de produção. No entanto, é importante observar que alguns tipos de VM, como a série E, não são certificados pelo HANA (Diretório de Hardware do SAP HANA) ou não podem atingir uma latência de armazenamento inferior a 1 ms.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2901,7 +2901,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2951,7 +2951,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Impor a propagação principal para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
+          <t>Impor a propagação da entidade de segurança para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3001,7 +3001,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
+          <t>Implemente SSO para aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com Azure AD usando SAML.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3046,7 +3046,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Implemente o SSO para aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3096,7 +3096,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Implemente o SSO para aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3142,7 +3142,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3238,7 +3238,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3283,7 +3283,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
+          <t>Implemente o SSO usando o OAuth para SAP NetWeaver para permitir que aplicativos personalizados ou de terceiros acessem os serviços OData do SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3329,7 +3329,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3374,7 +3374,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3419,7 +3419,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
+          <t>Para aplicativos que acessam o SAP, talvez você queira usar a propagação principal para estabelecer o SSO.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3464,7 +3464,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
+          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar o SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central de usuários e o provedor de identidade.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3509,7 +3509,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP BTP</t>
+          <t>Implementar SSO para SAP BTP</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3554,7 +3554,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
+          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, você pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS compatíveis com o Azure AD. Use o write-back do endereço de email para o SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3609,10 +3609,14 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="n"/>
+          <t>impor políticas existentes do Grupo de Gerenciamento às Assinaturas SAP</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="inlineStr">
+        <is>
+          <t>Mantenha a hierarquia do grupo de gerenciamento razoavelmente plana, não mais do que quatro.</t>
+        </is>
+      </c>
       <c r="E61" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3709,7 +3713,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Caixa de areia, não-prod, prod </t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3759,7 +3763,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
+          <t>Garantir o aumento da cota como parte do provisionamento da assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3855,7 +3859,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM está disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série de VMs, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -4050,7 +4054,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
+          <t>Se você implantar o Azure NetApp Files para seu banco de dados HANA, Oracle ou DB2, use a ferramenta AzAcSnap (Instantâneo Consistente com o Aplicativo do Azure) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também oferece suporte a bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4096,7 +4100,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
+          <t>Garanta correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4142,7 +4146,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
+          <t>Não agrupe diferentes serviços de aplicativo no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster de vários SID).</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4192,7 +4196,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de adiamento para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4238,7 +4242,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
+          <t>Se você fizer parceria com clientes gerenciando suas propriedades SAP, considere o Azure Lighthouse. O Azure Lighthouse permite que os provedores de serviços gerenciados usem serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, pois eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4384,7 +4388,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
+          <t>Use o Azure Monitor para soluções SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4434,7 +4438,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
+          <t>Execute uma extensão de VM para verificação SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma VM (máquina virtual) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4484,7 +4488,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t xml:space="preserve">Use o Azure Policy para controle de acesso e relatórios de conformidade. O Azure Policy fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4534,7 +4538,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
+          <t>Use o Monitor da Conexão no Observador de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medidas de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4680,7 +4684,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
+          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Site Recovery) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework for Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4730,7 +4734,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
+          <t>Implemente a proteção contra ameaças usando a solução do Microsoft Sentinel para SAP. Use essa solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e nas camadas de aplicativos.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4780,7 +4784,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e rastrear recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4876,7 +4880,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastre para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4926,7 +4930,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
+          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores de banco de dados os detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4972,7 +4976,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
+          <t>Considere coletar estatísticas completas do banco de dados para bancos de dados não HANA após a migração. Por exemplo, implemente a nota 1020260 do SAP - Entrega de estatísticas do Oracle.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -5018,7 +5022,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
+          <t>Considere usar o ASM (Gerenciamento Automático de Armazenamento) do Oracle para todas as implantações do Oracle que usam o SAP no Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5118,7 +5122,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastre para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5158,7 +5162,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5168,7 +5172,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Para entrega segura de aplicativos HTTP/S, use o Gateway de Aplicativo v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5208,7 +5212,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5218,7 +5222,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectarão muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estarão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS são alterados após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5258,7 +5262,7 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
@@ -5268,7 +5272,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
+          <t>Use diferentes zonas DNS para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) uns dos outros. A exceção é para implantações SAP com sua própria VNet; aqui, as zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5308,7 +5312,7 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
@@ -5318,10 +5322,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>O emparelhamento VNet local e global fornece conectividade e é a abordagem preferencial para garantir a conectividade entre zonas de destino para implantações SAP em várias regiões do Azure</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>Ao configurar o emparelhamento VNet, use a configuração Permitir tráfego para redes virtuais remotas.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5358,7 +5366,7 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
@@ -5408,7 +5416,7 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
@@ -5418,7 +5426,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais em que você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5458,7 +5466,7 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
@@ -5468,7 +5476,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
+          <t>Considere implantar NVAs (soluções de virtualização de rede) entre regiões somente se NVAs de parceiros forem usadas. NVAs entre regiões ou VNets não serão necessárias se NVAs nativas estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as diretrizes do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5508,7 +5516,7 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
@@ -5518,7 +5526,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
+          <t>A WAN Virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não é necessário configurar UDR [roteamento definido pelo usuário] ou NVAs) e a taxa de transferência máxima de rede para tráfego de VNet para VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de destino do SAP podem usar o emparelhamento VNet para se conectar a outras zonas de destino e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5558,7 +5566,7 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
@@ -5568,7 +5576,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de IP público à VM que executa o SAP Workload não é recomendada.</t>
+          <t>A atribuição de IP público à VM que executa a carga de trabalho SAP não é recomendada.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5608,7 +5616,7 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
@@ -5618,7 +5626,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço IP no lado do DR ao configurar o ASR</t>
+          <t>Considere reservar o endereço IP no lado da recuperação de desastre ao configurar o ASR</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5658,7 +5666,7 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
@@ -5708,7 +5716,7 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
@@ -5718,7 +5726,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma VNet, apenas uma sub-rede delegada pode existir em uma VNet para Azure NetApp Files. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para o Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5758,7 +5766,7 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
@@ -5808,7 +5816,7 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
@@ -5818,7 +5826,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
+          <t>O Gateway de Aplicativo e o Firewall de Aplicativo Web têm limitações quando o Gateway de Aplicativo serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Gateway de Aplicativo, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5858,7 +5866,7 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
@@ -5868,7 +5876,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre regiões do Azure para conexões HTTP/S de entrada para uma zona de destino.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5908,7 +5916,7 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
@@ -5918,7 +5926,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>Aproveite as políticas de Firewall de Aplicativo Web no Azure Front Door quando estiver usando o Azure Front Door e o Gateway de Aplicativo para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5958,7 +5966,7 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
@@ -5968,7 +5976,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele for exposto à Internet. Outra opção é usá-lo com o balanceador de carga ou com recursos que tenham recursos de firewall internos, como Gateway de Aplicativo ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6008,7 +6016,7 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
@@ -6018,7 +6026,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais em que você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6058,7 +6066,7 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
@@ -6068,7 +6076,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança os recursos da plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como Armazenamento do Azure, Backup do Azure e muito mais. O tráfego entre sua VNet e o serviço habilitado para Ponto de Extremidade Privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6108,7 +6116,7 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
@@ -6118,7 +6126,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas no aplicativo SAP e nas camadas do DBMS.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6158,7 +6166,7 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
@@ -6168,7 +6176,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração (Habilitando IP flutuante) reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar o DSR (Retorno Direto do Servidor). Essa configuração (Habilitando IP Flutuante) reduzirá a latência quando as configurações do balanceador de carga interno forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6208,7 +6216,7 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
@@ -6218,7 +6226,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
+          <t>Você pode usar o ASG (grupo de segurança do aplicativo) e as regras do NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas do DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6258,7 +6266,7 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
@@ -6268,7 +6276,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do DBMS SAP em diferentes VNets do Azure que não estão emparelhadas.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6308,7 +6316,7 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
@@ -6318,7 +6326,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere usar grupos de posicionamento por proximidade do Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6358,7 +6366,7 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
@@ -6368,7 +6376,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
+          <t>NÃO há suporte para executar uma camada do Servidor de Aplicativos SAP e uma camada do DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6408,7 +6416,7 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
@@ -6418,7 +6426,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+          <t>Não é recomendável hospedar o DBMS (sistema de gerenciamento de banco de dados) e as camadas de aplicativo de sistemas SAP em VNets diferentes e conectá-los ao emparelhamento VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomendamos o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada de DBMS.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6458,7 +6466,7 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
@@ -6508,7 +6516,7 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
@@ -6518,7 +6526,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>Para implantações do SAP RISE/ECS, o emparelhamento virtual é a maneira preferencial de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a rede virtual SAP quanto a(s) rede virtual(is) do cliente são protegidas com NSG (grupos de segurança de rede), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento de rede virtual</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6564,7 +6572,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Revise os backups de banco de dados do SAP HANA para VMs do Azure.</t>
+          <t>Examine os backups de banco de dados do SAP HANA para VMs do Azure.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6610,7 +6618,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Revise o monitoramento interno do Site Recovery, quando usado para SAP.</t>
+          <t>Examine o monitoramento interno do Site Recovery, quando usado para SAP.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6656,7 +6664,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Revise as diretrizes de monitoramento do cenário do sistema SAP HANA.</t>
+          <t>Revise as diretrizes Monitorando o cenário do sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6702,7 +6710,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Revise o Banco de Dados Oracle nas estratégias de backup de VM do Linux do Azure.</t>
+          <t>Examine o Oracle Database nas estratégias de backup de VM Linux do Azure.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6748,7 +6756,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Analise o uso do Armazenamento de Blobs do Azure com o SQL Server 2016.</t>
+          <t>Examine o uso do Armazenamento de Blobs do Azure com o SQL Server 2016.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6794,7 +6802,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Analise o uso do Backup Automatizado v2 para VMs do Azure.</t>
+          <t>Examine o uso do Backup Automatizado v2 para VMs do Azure.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6839,7 +6847,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Ativando o acelerador de gravação para a série M ao usar discos premium (V1)</t>
+          <t>Habilitando o acelerador de gravação para a série M ao usar discos premium (V1)</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,7 +6888,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Testar a latência da zona de disponibilidade.</t>
+          <t>Teste a latência da zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -7066,7 +7074,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Teste a latência de rede entre VMs de camada de aplicativo SAP e VMs DBMS (NIPING).</t>
+          <t>Teste a latência de rede entre VMs da camada de aplicativo SAP e VMs do DBMS (NIPING).</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7196,7 +7204,7 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
@@ -7206,7 +7214,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
+          <t>Se você executar VMs do Windows e do Linux no Azure, localmente ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7246,7 +7254,7 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
@@ -7256,7 +7264,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
+          <t>Revise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7296,7 +7304,7 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
@@ -7306,7 +7314,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta original de administrador do sistema.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7341,7 +7349,7 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
@@ -7351,7 +7359,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
+          <t>Desative xp_cmdshell. O recurso SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7391,7 +7399,7 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
@@ -7401,7 +7409,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Transparent Data Encryption) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7441,7 +7449,7 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
@@ -7451,7 +7459,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
+          <t>A criptografia do Armazenamento do Azure está habilitada para todas as contas de armazenamento clássicas e do Azure Resource Manager e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7491,7 +7499,7 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
@@ -7501,7 +7509,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Usar o Azure Key Vault para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7541,7 +7549,7 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
@@ -7551,7 +7559,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras de LOCK por assinatura usando políticas personalizadas do Azure (função personalizada).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7591,7 +7599,7 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
@@ -7601,7 +7609,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Provisione o Azure Key Vault com as políticas de exclusão reversível e limpeza habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7641,7 +7649,7 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
@@ -7651,7 +7659,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Com base nos requisitos existentes, controles regulatórios e de conformidade (internos/externos) – determine quais políticas do Azure e a função RBAC do Azure são necessárias</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7691,7 +7699,7 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
@@ -7701,7 +7709,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+          <t>Ao habilitar o Microsoft Defender para Ponto de Extremidade no ambiente SAP, recomendamos excluir dados e arquivos de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7741,7 +7749,7 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
@@ -7751,7 +7759,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+          <t>Delegue uma função personalizada de administrador do SAP com acesso just-in-time do Microsoft Defender para Nuvem.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7791,7 +7799,7 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
@@ -7841,7 +7849,7 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
@@ -7851,7 +7859,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7891,7 +7899,7 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
@@ -7901,7 +7909,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Use um Azure Key Vault por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7941,7 +7949,7 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
@@ -7951,7 +7959,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>Para controlar e gerenciar chaves e segredos de criptografia de disco para sistemas operacionais Windows e Windows não HANA, use o Azure Key Vault. Não há suporte para o SAP HANA com o Azure Key Vault, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7991,7 +7999,7 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
@@ -8001,7 +8009,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para assinaturas SAP on Azure spoke para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8041,7 +8049,7 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
@@ -8051,7 +8059,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Isole DMZs e NVAs do restante da propriedade SAP, configure o Link Privado do Azure e gerencie e controle com segurança os recursos do SAP no Azure</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8091,7 +8099,7 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
@@ -8141,7 +8149,7 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
@@ -8151,7 +8159,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar Microsoft Defender para Ponto de Extremidade.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8191,7 +8199,7 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
@@ -8201,7 +8209,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>Isole o aplicativo SAP e os servidores de banco de dados da Internet ou da rede local passando todo o tráfego pela rede virtual do hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8241,7 +8249,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8251,7 +8259,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos do aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Firewall de Aplicativo Web) de terceiros disponível no Azure Marketplace.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8291,7 +8299,7 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
@@ -10686,7 +10694,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Identidade e Acesso</t>
+          <t>Identidade e acesso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10723,7 +10731,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10750,12 +10758,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -10799,7 +10807,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não aplicável ao projeto atual</t>
+          <t>Não aplicável para o projeto atual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
